--- a/shared/final_spreadsheets/marinegeo_spreadsheet_predation_assay.xlsx
+++ b/shared/final_spreadsheets/marinegeo_spreadsheet_predation_assay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\shared\final_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A9790-1E2E-4A80-85E9-75324F5B5D5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FCF24-A135-4C04-9B01-BAB61D1972E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="2895" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
